--- a/stage_1/Formulas_Functions/Formulas.xlsx
+++ b/stage_1/Formulas_Functions/Formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E9B50-7460-4E8E-87CA-2A7065FB9491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9F9B34-5894-4897-9ED7-66B0A3FE1DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Product</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Average Price</t>
+  </si>
+  <si>
+    <t>Minimum Quantity</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,12 +428,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -552,7 +563,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <f>AVERAGE(C2:C7)</f>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9">
@@ -561,7 +579,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f xml:space="preserve"> MIN(D2:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10">
@@ -570,7 +595,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11">
@@ -579,7 +604,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E12">

--- a/stage_1/Formulas_Functions/Formulas.xlsx
+++ b/stage_1/Formulas_Functions/Formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9F9B34-5894-4897-9ED7-66B0A3FE1DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66286E9E-13B2-4CA8-BEC6-CA204BA82033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
